--- a/data/fangYao.xlsx
+++ b/data/fangYao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zlh\Desktop\ZhongyiApp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0FFC77E2-AE69-4768-8D38-0599D7D326FA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1863F2E3-1EEC-47E4-8B22-D30248ABAAA1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9360" windowHeight="1190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="530">
   <si>
     <t>证型</t>
   </si>
@@ -878,757 +878,739 @@
     <t>归脾汤 八珍汤</t>
   </si>
   <si>
-    <t>两眼干涩,视物模糊(头面)</t>
-  </si>
-  <si>
-    <t>爪甲干枯脆薄(四肢)</t>
-  </si>
-  <si>
-    <t>肢麻关节屈伸困难(四肢)</t>
-  </si>
-  <si>
-    <t>面唇淡白无华(头面)</t>
-  </si>
-  <si>
-    <t>胁肋隐痛(胸腹)</t>
-  </si>
-  <si>
-    <t>面部烘热(头面)</t>
-  </si>
-  <si>
-    <t>情志抑郁(精神)</t>
-  </si>
-  <si>
-    <t>胁肋气胀痛(胸腹)</t>
-  </si>
-  <si>
-    <t>妇女月经失调(妇科)</t>
-  </si>
-  <si>
-    <t>胸闷(胸腹)</t>
-  </si>
-  <si>
-    <t>头晕胀痛(头面)</t>
-  </si>
-  <si>
-    <t>急躁易怒(精神)</t>
-  </si>
-  <si>
-    <t>胁肋灼痛(胸腹)</t>
-  </si>
-  <si>
-    <t>面红目赤(头面)</t>
-  </si>
-  <si>
-    <t>头目胀痛(头面)</t>
-  </si>
-  <si>
-    <t>头重脚轻(头面)</t>
-  </si>
-  <si>
-    <t>腰膝酸软(腰)</t>
-  </si>
-  <si>
     <t>肝风内动证(肝阳化风)</t>
   </si>
   <si>
-    <t>眩晕欲仆倒(头面)</t>
-  </si>
-  <si>
-    <t>头摇而痛(头面)</t>
-  </si>
-  <si>
-    <t>猝然昏倒(全身)</t>
-  </si>
-  <si>
-    <t>口眼歪斜(头面)</t>
-  </si>
-  <si>
     <t>肝风内动证(热极生风)</t>
   </si>
   <si>
-    <t>高热神昏(全身)</t>
-  </si>
-  <si>
-    <t>四肢抽搐(四肢)</t>
-  </si>
-  <si>
-    <t>角弓反张(全身)</t>
-  </si>
-  <si>
-    <t>牙关紧闭(头面)</t>
-  </si>
-  <si>
     <t>羚角片 双钩藤 霜桑叶 滁菊花 鲜生地 生白芍 川贝母 淡竹茹(鲜刮 与羚羊角先煎代水) 伏神木 生甘草</t>
   </si>
   <si>
     <t>肝风内动证(阴虚风动)</t>
   </si>
   <si>
-    <t>手足抽搐缓慢无力(四肢)</t>
-  </si>
-  <si>
-    <t>眩晕耳鸣(头面)</t>
-  </si>
-  <si>
-    <t>潮热盗汗(全身)</t>
-  </si>
-  <si>
-    <t>形体消瘦(全身)</t>
-  </si>
-  <si>
     <t>怀牛膝 生赭石(轧细) 生龙骨(捣碎) 生牡蛎(捣碎) 生龟板(捣碎) 生白芍 玄参 天冬 川楝子(捣碎 生麦芽 茵陈 甘草</t>
   </si>
   <si>
     <t>肝风内动证(血虚生风)</t>
   </si>
   <si>
-    <t>手足震颤(四肢)</t>
-  </si>
-  <si>
-    <t>肌肉掣动(全身)</t>
-  </si>
-  <si>
-    <t>肢体麻木(四肢)</t>
-  </si>
-  <si>
-    <t>面色无华(头面)</t>
-  </si>
-  <si>
-    <t>胁肋胀痛(胸腹)</t>
-  </si>
-  <si>
-    <t>纳呆呕恶(胸腹)</t>
-  </si>
-  <si>
-    <t>皮肤巩膜黏膜发黄(全身)</t>
-  </si>
-  <si>
-    <t>口苦(头面)</t>
-  </si>
-  <si>
-    <t>少腹冷痛(胸腹)</t>
-  </si>
-  <si>
-    <t>阴部冷痛(阴部)</t>
-  </si>
-  <si>
-    <t>头顶冷痛(头面)</t>
-  </si>
-  <si>
-    <t>形寒肢冷(全身)</t>
-  </si>
-  <si>
-    <t>惊悸失眠(全身)</t>
-  </si>
-  <si>
-    <t>眩晕(头面)</t>
-  </si>
-  <si>
-    <t>烦躁不安(全身)</t>
-  </si>
-  <si>
-    <t>心悸(胸)</t>
-  </si>
-  <si>
-    <t>气短,劳后加重(全身)</t>
-  </si>
-  <si>
-    <t>自汗(全身)</t>
-  </si>
-  <si>
-    <t>面白亮(头面)</t>
-  </si>
-  <si>
-    <t>面白亮或晦暗(头面)</t>
-  </si>
-  <si>
-    <t>呼吸微弱(全身)</t>
-  </si>
-  <si>
-    <t>冷汗淋漓(全身)</t>
-  </si>
-  <si>
-    <t>面苍白(头面)</t>
-  </si>
-  <si>
-    <t>失眠(全身)</t>
-  </si>
-  <si>
-    <t>多梦(全身)</t>
-  </si>
-  <si>
-    <t>面白(头面)</t>
-  </si>
-  <si>
-    <t>五心烦热(胸)</t>
-  </si>
-  <si>
-    <t>盗汗(全身)</t>
-  </si>
-  <si>
-    <t>颧红(头面)</t>
-  </si>
-  <si>
     <t>心脉痹阻证(瘀阻心脉)</t>
   </si>
   <si>
-    <t>心胸憋痛(胸)</t>
-  </si>
-  <si>
-    <t>痛如针刺(胸)</t>
-  </si>
-  <si>
     <t>心脉痹阻证(痰阻心脉)</t>
   </si>
   <si>
-    <t>肢体酸痛,疲劳困倦(全身)</t>
-  </si>
-  <si>
-    <t>体胖痰多(全身)</t>
-  </si>
-  <si>
     <t>心脉痹阻证(寒凝心脉)</t>
   </si>
   <si>
-    <t>心胸突然剧痛(胸)</t>
-  </si>
-  <si>
-    <t>肢冷(四肢)</t>
-  </si>
-  <si>
-    <t>得温痛减(全身)</t>
-  </si>
-  <si>
     <t>心脉痹阻证(气滞心脉)</t>
   </si>
   <si>
-    <t>胀痛(胸)</t>
-  </si>
-  <si>
-    <t>善太息(全身)</t>
-  </si>
-  <si>
-    <t>心烦(胸)</t>
-  </si>
-  <si>
-    <t>便秘尿黄(二便)</t>
-  </si>
-  <si>
-    <t>面赤口渴(全身)</t>
-  </si>
-  <si>
-    <t>意识模糊(阴)</t>
-  </si>
-  <si>
-    <t>表情淡漠(全身)</t>
-  </si>
-  <si>
-    <t>喉中痰鸣(咽喉)</t>
-  </si>
-  <si>
-    <t>面色晦滞(头面)</t>
-  </si>
-  <si>
-    <t>神志异常(阳)</t>
-  </si>
-  <si>
-    <t>身热气粗(全身)</t>
-  </si>
-  <si>
-    <t>吐痰色黄(肺)</t>
-  </si>
-  <si>
-    <t>高声狂躁(全身)</t>
-  </si>
-  <si>
-    <t>头刺痛(头面)</t>
-  </si>
-  <si>
-    <t>健忘(全身)</t>
-  </si>
-  <si>
-    <t>面色晦暗(头面)</t>
-  </si>
-  <si>
-    <t>尿道灼痛(二便)</t>
-  </si>
-  <si>
-    <t>口舌生疮(头面)</t>
-  </si>
-  <si>
-    <t>面赤口渴(头面)</t>
-  </si>
-  <si>
-    <t>食欲下降(全身)</t>
-  </si>
-  <si>
-    <t>腹胀(腹)</t>
-  </si>
-  <si>
-    <t>便溏(二便)</t>
-  </si>
-  <si>
-    <t>面色萎黄或淡白(头面)</t>
-  </si>
-  <si>
-    <t>脘腹坠胀(腹)</t>
-  </si>
-  <si>
-    <t>内脏下垂(全身)</t>
-  </si>
-  <si>
-    <t>头晕目眩(头面)</t>
-  </si>
-  <si>
-    <t>腹部隐痛(腹)</t>
-  </si>
-  <si>
-    <t>大便清稀或完谷不化(二便)</t>
-  </si>
-  <si>
-    <t>浮肿(全身)</t>
-  </si>
-  <si>
-    <t>四肢不温(四肢)</t>
-  </si>
-  <si>
     <t>厚朴 白术 木瓜 木香 草果仁 大腹子 附子(炮) 白茯苓 干姜(炮) 炙甘草</t>
   </si>
   <si>
-    <t>出血(全身)</t>
-  </si>
-  <si>
-    <t>食少(胃脘)</t>
-  </si>
-  <si>
-    <t>脘腹满闷不舒(腹)</t>
-  </si>
-  <si>
-    <t>呕恶便溏(二便)</t>
-  </si>
-  <si>
-    <t>头重身困(全身)</t>
-  </si>
-  <si>
-    <t>面色发黄,色晦暗不泽(全身)</t>
-  </si>
-  <si>
     <t>茵陈 白术 附子 干姜 炙甘草 肉桂(去皮)</t>
   </si>
   <si>
-    <t>脘腹胀满不舒(腹)</t>
-  </si>
-  <si>
-    <t>身体困重(全身)</t>
-  </si>
-  <si>
-    <t>便溏不爽(二便)</t>
-  </si>
-  <si>
-    <t>身热不扬(全身)</t>
-  </si>
-  <si>
-    <t>脘腹胀满(腹)</t>
-  </si>
-  <si>
-    <t>胃脘隐痛(腹)</t>
-  </si>
-  <si>
-    <t>食少(全身)</t>
-  </si>
-  <si>
-    <t>面色萎黄(头面)</t>
-  </si>
-  <si>
-    <t>胃脘冷痛(腹)</t>
-  </si>
-  <si>
-    <t>畏食生冷(胃脘)</t>
-  </si>
-  <si>
-    <t>泛吐清水(胃脘)</t>
-  </si>
-  <si>
-    <t>倦怠乏力(全身)</t>
-  </si>
-  <si>
-    <t>胃脘灼痛隐隐(腹)</t>
-  </si>
-  <si>
-    <t>饥不欲食(胃脘)</t>
-  </si>
-  <si>
-    <t>口燥咽干(咽喉)</t>
-  </si>
-  <si>
-    <t>大便干结(二便)</t>
-  </si>
-  <si>
-    <t>胃脘灼痛拒按(腹)</t>
-  </si>
-  <si>
-    <t>食欲亢剩(胃脘)</t>
-  </si>
-  <si>
-    <t>牙龈肿痛(头面)</t>
-  </si>
-  <si>
-    <t>大便秘结(二便)</t>
-  </si>
-  <si>
-    <t>胃脘冷痛拒按(腹)</t>
-  </si>
-  <si>
-    <t>呕吐清稀口水(胃脘)</t>
-  </si>
-  <si>
-    <t>肢体不温(四肢)</t>
-  </si>
-  <si>
-    <t>口淡不渴(全身)</t>
-  </si>
-  <si>
-    <t>胃脘胀痛(腹)</t>
-  </si>
-  <si>
-    <t>嗳腐吞酸(胃脘)</t>
-  </si>
-  <si>
-    <t>恶心欲吐(全身)</t>
-  </si>
-  <si>
-    <t>泻下物臭秽如败卵(二便)</t>
-  </si>
-  <si>
-    <t>嗳气(胃脘)</t>
-  </si>
-  <si>
-    <t>呃逆(胃脘)</t>
-  </si>
-  <si>
-    <t>恶心呕吐(胃脘)</t>
-  </si>
-  <si>
-    <t>咳喘无力(胸)</t>
-  </si>
-  <si>
-    <t>咳痰清稀(胸)</t>
-  </si>
-  <si>
-    <t>声低懒言(全身)</t>
-  </si>
-  <si>
-    <t>面色淡白(全身)</t>
-  </si>
-  <si>
-    <t>干咳无痰(胸)</t>
-  </si>
-  <si>
-    <t>痰少而黏(胸)</t>
-  </si>
-  <si>
-    <t>口燥咽干(头面)</t>
-  </si>
-  <si>
-    <t>声音嘶哑(头面)</t>
-  </si>
-  <si>
-    <t>痰白清稀量多(胸)</t>
-  </si>
-  <si>
-    <t>声低息微,肢体欠温(全身)</t>
-  </si>
-  <si>
-    <t>面色晦暗或晄白(全身)</t>
-  </si>
-  <si>
-    <t>咳嗽(胸)</t>
-  </si>
-  <si>
-    <t>鼻塞流清涕(头面)</t>
-  </si>
-  <si>
-    <t>头身疼痛(全身)</t>
-  </si>
-  <si>
-    <t>恶寒发热(全身)</t>
-  </si>
-  <si>
-    <t>口渴(全身)</t>
-  </si>
-  <si>
-    <t>头痛咽喉痛(头面)</t>
-  </si>
-  <si>
-    <t>咳痰黄稠(胸)</t>
-  </si>
-  <si>
-    <t>干咳痰少而黏(胸)</t>
-  </si>
-  <si>
-    <t>口鼻干燥(头面)</t>
-  </si>
-  <si>
-    <t>尿少便干(二便)</t>
-  </si>
-  <si>
-    <t>微恶风寒(全身)</t>
-  </si>
-  <si>
-    <t>咳喘哮鸣(胸)</t>
-  </si>
-  <si>
-    <t>咯痰量多清稀(胸)</t>
-  </si>
-  <si>
-    <t>发热,烦渴(全身)</t>
-  </si>
-  <si>
-    <t>咳喘气急(胸)</t>
-  </si>
-  <si>
-    <t>尿黄便秘(二便)</t>
-  </si>
-  <si>
-    <t>面赤气粗(全身)</t>
-  </si>
-  <si>
-    <t>发热,咳喘(胸)</t>
-  </si>
-  <si>
-    <t>咯腥臭脓痰(胸)</t>
-  </si>
-  <si>
-    <t>鼻搧,胸闷胸痛(头面)</t>
-  </si>
-  <si>
-    <t>眼及面部浮肿(头面)</t>
-  </si>
-  <si>
-    <t>皮肤薄而亮(全身)</t>
-  </si>
-  <si>
-    <t>小便短少(二便)</t>
-  </si>
-  <si>
-    <t>大便夹浓血(二便)</t>
-  </si>
-  <si>
-    <t>腹痛(腹)</t>
-  </si>
-  <si>
-    <t>里急后重(二便)</t>
-  </si>
-  <si>
-    <t>大便色黄而臭(二便)</t>
-  </si>
-  <si>
-    <t>腹胀痛拒按(腹)</t>
-  </si>
-  <si>
-    <t>便秘(二便)</t>
-  </si>
-  <si>
-    <t>泻下青黑粪水(二便)</t>
-  </si>
-  <si>
-    <t>下午3点到5点潮热汗出(全身)</t>
-  </si>
-  <si>
-    <t>便干结如羊粪(二便)</t>
-  </si>
-  <si>
-    <t>腹胀作痛(腹)</t>
-  </si>
-  <si>
-    <t>口臭(头面)</t>
-  </si>
-  <si>
-    <t>脐腹部疼痛(腹)</t>
-  </si>
-  <si>
-    <t>胃中空虚(胃脘)</t>
-  </si>
-  <si>
-    <t>厌食嗜食(胃脘)</t>
-  </si>
-  <si>
-    <t>面黄肌瘦(全身)</t>
-  </si>
-  <si>
-    <t>小儿发育迟缓(全身)</t>
-  </si>
-  <si>
-    <t>男子不育,女子不孕(生殖)</t>
-  </si>
-  <si>
-    <t>腰膝酸软而痛(腰)</t>
-  </si>
-  <si>
-    <t>失眠多梦(全身)</t>
-  </si>
-  <si>
-    <t>两手两足心发热(全身)</t>
-  </si>
-  <si>
-    <t>腰膝酸软冷痛(腰)</t>
-  </si>
-  <si>
-    <t>生殖能力下降(生殖)</t>
-  </si>
-  <si>
-    <t>夜尿频多(二便)</t>
-  </si>
-  <si>
-    <t>面白发亮无血色(全身)</t>
-  </si>
-  <si>
-    <t>水肿下肢为甚(全身)</t>
-  </si>
-  <si>
-    <t>畏冷肢凉(全身)</t>
-  </si>
-  <si>
-    <t>尿少(二便)</t>
-  </si>
-  <si>
-    <t>尿频而清(二便)</t>
-  </si>
-  <si>
-    <t>男子滑精早泄(生殖)</t>
-  </si>
-  <si>
-    <t>女子月经淋漓不尽,胎动易滑(生殖)</t>
-  </si>
-  <si>
-    <t>久病咳喘无力(胸)</t>
-  </si>
-  <si>
-    <t>自汗,身疲(全身)</t>
-  </si>
-  <si>
-    <t>或面青肢冷,或咽干颧红(全身)</t>
-  </si>
-  <si>
-    <t>尿频尿急,尿道灼痛(二便)</t>
-  </si>
-  <si>
-    <t>尿黄赤浑浊(二便)</t>
-  </si>
-  <si>
-    <t>或尿血,或尿有砂石(二便)</t>
-  </si>
-  <si>
-    <t>发热腰痛(腰)</t>
-  </si>
-  <si>
-    <t>心烦心悸(胸)</t>
-  </si>
-  <si>
-    <t>失眠健忘(全身)</t>
-  </si>
-  <si>
-    <t>心悸怔忡(胸)</t>
-  </si>
-  <si>
-    <t>肢体浮肿(全身)</t>
-  </si>
-  <si>
-    <t>畏寒肢冷(四肢)</t>
-  </si>
-  <si>
-    <t>心悸咳喘(胸)</t>
-  </si>
-  <si>
-    <t>胸闷气短(胸)</t>
-  </si>
-  <si>
-    <t>声低懒言,自汗乏力(全身)</t>
-  </si>
-  <si>
-    <t>心悸失眠(胸)</t>
-  </si>
-  <si>
-    <t>食少便溏(胃脘)</t>
-  </si>
-  <si>
-    <t>神疲乏力(全身)</t>
-  </si>
-  <si>
-    <t>面色萎黄或淡白无光泽(全身)</t>
-  </si>
-  <si>
-    <t>心悸健忘(胸)</t>
-  </si>
-  <si>
-    <t>肢体麻木(全身)</t>
-  </si>
-  <si>
-    <t>面白无光泽(全身)</t>
-  </si>
-  <si>
-    <t>食少腹胀便溏(胃脘)</t>
-  </si>
-  <si>
-    <t>咳喘气短(胸)</t>
-  </si>
-  <si>
-    <t>少气懒言(全身)</t>
-  </si>
-  <si>
-    <t>干咳少痰(胸)</t>
-  </si>
-  <si>
-    <t>声音嘶哑(咽喉)</t>
-  </si>
-  <si>
-    <t>遗精,月经不调(生殖)</t>
-  </si>
-  <si>
-    <t>颧红盗汗,骨蒸潮热(全身)</t>
-  </si>
-  <si>
-    <t>咳嗽或咳血(胸)</t>
-  </si>
-  <si>
-    <t>胸胁灼痛(胸)</t>
-  </si>
-  <si>
-    <t>急躁易怒(全身)</t>
-  </si>
-  <si>
-    <t>胸胁胀满窜痛(胸)</t>
-  </si>
-  <si>
-    <t>时常叹气(全身)</t>
-  </si>
-  <si>
-    <t>纳呆腹胀便溏(腹)</t>
-  </si>
-  <si>
-    <t>胃脘,胁肋胀痛或窜痛(胃脘)</t>
-  </si>
-  <si>
-    <t>打嗝吞酸(胃脘)</t>
-  </si>
-  <si>
-    <t>饮食减少(胃脘)</t>
-  </si>
-  <si>
-    <t>爱叹气,急躁易怒(全身)</t>
-  </si>
-  <si>
-    <t>颧红盗汗(全身)</t>
-  </si>
-  <si>
-    <t>腰腹冷痛(腰)</t>
-  </si>
-  <si>
-    <t>久泻久痢(二便)</t>
-  </si>
-  <si>
-    <t>面浮肢肿(全身)</t>
+    <t>两眼干涩,视物模糊</t>
+  </si>
+  <si>
+    <t>面唇淡白无华</t>
+  </si>
+  <si>
+    <t>面部烘热</t>
+  </si>
+  <si>
+    <t>头晕胀痛</t>
+  </si>
+  <si>
+    <t>面红目赤</t>
+  </si>
+  <si>
+    <t>头目胀痛</t>
+  </si>
+  <si>
+    <t>头重脚轻</t>
+  </si>
+  <si>
+    <t>眩晕欲仆倒</t>
+  </si>
+  <si>
+    <t>头摇而痛</t>
+  </si>
+  <si>
+    <t>口眼歪斜</t>
+  </si>
+  <si>
+    <t>牙关紧闭</t>
+  </si>
+  <si>
+    <t>眩晕耳鸣</t>
+  </si>
+  <si>
+    <t>面色无华</t>
+  </si>
+  <si>
+    <t>口苦</t>
+  </si>
+  <si>
+    <t>头顶冷痛</t>
+  </si>
+  <si>
+    <t>眩晕</t>
+  </si>
+  <si>
+    <t>面白亮</t>
+  </si>
+  <si>
+    <t>面白亮或晦暗</t>
+  </si>
+  <si>
+    <t>面苍白</t>
+  </si>
+  <si>
+    <t>面白</t>
+  </si>
+  <si>
+    <t>颧红</t>
+  </si>
+  <si>
+    <t>面色晦滞</t>
+  </si>
+  <si>
+    <t>头刺痛</t>
+  </si>
+  <si>
+    <t>面色晦暗</t>
+  </si>
+  <si>
+    <t>口舌生疮</t>
+  </si>
+  <si>
+    <t>面赤口渴</t>
+  </si>
+  <si>
+    <t>面色萎黄或淡白</t>
+  </si>
+  <si>
+    <t>头晕目眩</t>
+  </si>
+  <si>
+    <t>面色萎黄</t>
+  </si>
+  <si>
+    <t>牙龈肿痛</t>
+  </si>
+  <si>
+    <t>口燥咽干</t>
+  </si>
+  <si>
+    <t>声音嘶哑</t>
+  </si>
+  <si>
+    <t>鼻塞流清涕</t>
+  </si>
+  <si>
+    <t>头痛咽喉痛</t>
+  </si>
+  <si>
+    <t>口鼻干燥</t>
+  </si>
+  <si>
+    <t>鼻搧,胸闷胸痛</t>
+  </si>
+  <si>
+    <t>眼及面部浮肿</t>
+  </si>
+  <si>
+    <t>口臭</t>
+  </si>
+  <si>
+    <t>腰膝酸软</t>
+  </si>
+  <si>
+    <t>腰膝酸软而痛</t>
+  </si>
+  <si>
+    <t>腰膝酸软冷痛</t>
+  </si>
+  <si>
+    <t>发热腰痛</t>
+  </si>
+  <si>
+    <t>腰腹冷痛</t>
+  </si>
+  <si>
+    <t>心悸</t>
+  </si>
+  <si>
+    <t>五心烦热</t>
+  </si>
+  <si>
+    <t>心胸憋痛</t>
+  </si>
+  <si>
+    <t>痛如针刺</t>
+  </si>
+  <si>
+    <t>心胸突然剧痛</t>
+  </si>
+  <si>
+    <t>胀痛</t>
+  </si>
+  <si>
+    <t>心烦</t>
+  </si>
+  <si>
+    <t>咳喘无力</t>
+  </si>
+  <si>
+    <t>咳痰清稀</t>
+  </si>
+  <si>
+    <t>干咳无痰</t>
+  </si>
+  <si>
+    <t>痰少而黏</t>
+  </si>
+  <si>
+    <t>痰白清稀量多</t>
+  </si>
+  <si>
+    <t>咳嗽</t>
+  </si>
+  <si>
+    <t>咳痰黄稠</t>
+  </si>
+  <si>
+    <t>干咳痰少而黏</t>
+  </si>
+  <si>
+    <t>咳喘哮鸣</t>
+  </si>
+  <si>
+    <t>咯痰量多清稀</t>
+  </si>
+  <si>
+    <t>咳喘气急</t>
+  </si>
+  <si>
+    <t>发热,咳喘</t>
+  </si>
+  <si>
+    <t>咯腥臭脓痰</t>
+  </si>
+  <si>
+    <t>久病咳喘无力</t>
+  </si>
+  <si>
+    <t>心烦心悸</t>
+  </si>
+  <si>
+    <t>心悸怔忡</t>
+  </si>
+  <si>
+    <t>心悸咳喘</t>
+  </si>
+  <si>
+    <t>胸闷气短</t>
+  </si>
+  <si>
+    <t>心悸失眠</t>
+  </si>
+  <si>
+    <t>心悸健忘</t>
+  </si>
+  <si>
+    <t>咳喘气短</t>
+  </si>
+  <si>
+    <t>干咳少痰</t>
+  </si>
+  <si>
+    <t>咳嗽或咳血</t>
+  </si>
+  <si>
+    <t>胸胁灼痛</t>
+  </si>
+  <si>
+    <t>胸胁胀满窜痛</t>
+  </si>
+  <si>
+    <t>食少</t>
+  </si>
+  <si>
+    <t>畏食生冷</t>
+  </si>
+  <si>
+    <t>泛吐清水</t>
+  </si>
+  <si>
+    <t>饥不欲食</t>
+  </si>
+  <si>
+    <t>食欲亢剩</t>
+  </si>
+  <si>
+    <t>呕吐清稀口水</t>
+  </si>
+  <si>
+    <t>嗳腐吞酸</t>
+  </si>
+  <si>
+    <t>嗳气</t>
+  </si>
+  <si>
+    <t>呃逆</t>
+  </si>
+  <si>
+    <t>恶心呕吐</t>
+  </si>
+  <si>
+    <t>胃中空虚</t>
+  </si>
+  <si>
+    <t>厌食嗜食</t>
+  </si>
+  <si>
+    <t>食少便溏</t>
+  </si>
+  <si>
+    <t>食少腹胀便溏</t>
+  </si>
+  <si>
+    <t>胃脘,胁肋胀痛或窜痛</t>
+  </si>
+  <si>
+    <t>打嗝吞酸</t>
+  </si>
+  <si>
+    <t>饮食减少</t>
+  </si>
+  <si>
+    <t>便秘尿黄</t>
+  </si>
+  <si>
+    <t>尿道灼痛</t>
+  </si>
+  <si>
+    <t>便溏</t>
+  </si>
+  <si>
+    <t>大便清稀或完谷不化</t>
+  </si>
+  <si>
+    <t>呕恶便溏</t>
+  </si>
+  <si>
+    <t>便溏不爽</t>
+  </si>
+  <si>
+    <t>大便干结</t>
+  </si>
+  <si>
+    <t>大便秘结</t>
+  </si>
+  <si>
+    <t>泻下物臭秽如败卵</t>
+  </si>
+  <si>
+    <t>尿少便干</t>
+  </si>
+  <si>
+    <t>尿黄便秘</t>
+  </si>
+  <si>
+    <t>小便短少</t>
+  </si>
+  <si>
+    <t>大便夹浓血</t>
+  </si>
+  <si>
+    <t>里急后重</t>
+  </si>
+  <si>
+    <t>大便色黄而臭</t>
+  </si>
+  <si>
+    <t>便秘</t>
+  </si>
+  <si>
+    <t>泻下青黑粪水</t>
+  </si>
+  <si>
+    <t>便干结如羊粪</t>
+  </si>
+  <si>
+    <t>夜尿频多</t>
+  </si>
+  <si>
+    <t>尿少</t>
+  </si>
+  <si>
+    <t>尿频而清</t>
+  </si>
+  <si>
+    <t>尿频尿急,尿道灼痛</t>
+  </si>
+  <si>
+    <t>尿黄赤浑浊</t>
+  </si>
+  <si>
+    <t>或尿血,或尿有砂石</t>
+  </si>
+  <si>
+    <t>久泻久痢</t>
+  </si>
+  <si>
+    <t>猝然昏倒</t>
+  </si>
+  <si>
+    <t>高热神昏</t>
+  </si>
+  <si>
+    <t>角弓反张</t>
+  </si>
+  <si>
+    <t>潮热盗汗</t>
+  </si>
+  <si>
+    <t>形体消瘦</t>
+  </si>
+  <si>
+    <t>肌肉掣动</t>
+  </si>
+  <si>
+    <t>皮肤巩膜黏膜发黄</t>
+  </si>
+  <si>
+    <t>形寒肢冷</t>
+  </si>
+  <si>
+    <t>惊悸失眠</t>
+  </si>
+  <si>
+    <t>烦躁不安</t>
+  </si>
+  <si>
+    <t>气短,劳后加重</t>
+  </si>
+  <si>
+    <t>自汗</t>
+  </si>
+  <si>
+    <t>呼吸微弱</t>
+  </si>
+  <si>
+    <t>冷汗淋漓</t>
+  </si>
+  <si>
+    <t>失眠</t>
+  </si>
+  <si>
+    <t>多梦</t>
+  </si>
+  <si>
+    <t>盗汗</t>
+  </si>
+  <si>
+    <t>肢体酸痛,疲劳困倦</t>
+  </si>
+  <si>
+    <t>体胖痰多</t>
+  </si>
+  <si>
+    <t>得温痛减</t>
+  </si>
+  <si>
+    <t>善太息</t>
+  </si>
+  <si>
+    <t>表情淡漠</t>
+  </si>
+  <si>
+    <t>身热气粗</t>
+  </si>
+  <si>
+    <t>高声狂躁</t>
+  </si>
+  <si>
+    <t>健忘</t>
+  </si>
+  <si>
+    <t>食欲下降</t>
+  </si>
+  <si>
+    <t>内脏下垂</t>
+  </si>
+  <si>
+    <t>浮肿</t>
+  </si>
+  <si>
+    <t>出血</t>
+  </si>
+  <si>
+    <t>头重身困</t>
+  </si>
+  <si>
+    <t>面色发黄,色晦暗不泽</t>
+  </si>
+  <si>
+    <t>身体困重</t>
+  </si>
+  <si>
+    <t>身热不扬</t>
+  </si>
+  <si>
+    <t>倦怠乏力</t>
+  </si>
+  <si>
+    <t>口淡不渴</t>
+  </si>
+  <si>
+    <t>恶心欲吐</t>
+  </si>
+  <si>
+    <t>声低懒言</t>
+  </si>
+  <si>
+    <t>面色淡白</t>
+  </si>
+  <si>
+    <t>声低息微,肢体欠温</t>
+  </si>
+  <si>
+    <t>面色晦暗或晄白</t>
+  </si>
+  <si>
+    <t>头身疼痛</t>
+  </si>
+  <si>
+    <t>恶寒发热</t>
+  </si>
+  <si>
+    <t>口渴</t>
+  </si>
+  <si>
+    <t>微恶风寒</t>
+  </si>
+  <si>
+    <t>发热,烦渴</t>
+  </si>
+  <si>
+    <t>面赤气粗</t>
+  </si>
+  <si>
+    <t>皮肤薄而亮</t>
+  </si>
+  <si>
+    <t>下午3点到5点潮热汗出</t>
+  </si>
+  <si>
+    <t>面黄肌瘦</t>
+  </si>
+  <si>
+    <t>小儿发育迟缓</t>
+  </si>
+  <si>
+    <t>失眠多梦</t>
+  </si>
+  <si>
+    <t>两手两足心发热</t>
+  </si>
+  <si>
+    <t>面白发亮无血色</t>
+  </si>
+  <si>
+    <t>水肿下肢为甚</t>
+  </si>
+  <si>
+    <t>畏冷肢凉</t>
+  </si>
+  <si>
+    <t>自汗,身疲</t>
+  </si>
+  <si>
+    <t>或面青肢冷,或咽干颧红</t>
+  </si>
+  <si>
+    <t>失眠健忘</t>
+  </si>
+  <si>
+    <t>肢体浮肿</t>
+  </si>
+  <si>
+    <t>声低懒言,自汗乏力</t>
+  </si>
+  <si>
+    <t>神疲乏力</t>
+  </si>
+  <si>
+    <t>面色萎黄或淡白无光泽</t>
+  </si>
+  <si>
+    <t>肢体麻木</t>
+  </si>
+  <si>
+    <t>面白无光泽</t>
+  </si>
+  <si>
+    <t>少气懒言</t>
+  </si>
+  <si>
+    <t>颧红盗汗,骨蒸潮热</t>
+  </si>
+  <si>
+    <t>急躁易怒</t>
+  </si>
+  <si>
+    <t>时常叹气</t>
+  </si>
+  <si>
+    <t>爱叹气,急躁易怒</t>
+  </si>
+  <si>
+    <t>颧红盗汗</t>
+  </si>
+  <si>
+    <t>面浮肢肿</t>
+  </si>
+  <si>
+    <t>爪甲干枯脆薄</t>
+  </si>
+  <si>
+    <t>肢麻关节屈伸困难</t>
+  </si>
+  <si>
+    <t>四肢抽搐</t>
+  </si>
+  <si>
+    <t>手足抽搐缓慢无力</t>
+  </si>
+  <si>
+    <t>手足震颤</t>
+  </si>
+  <si>
+    <t>肢冷</t>
+  </si>
+  <si>
+    <t>四肢不温</t>
+  </si>
+  <si>
+    <t>肢体不温</t>
+  </si>
+  <si>
+    <t>畏寒肢冷</t>
+  </si>
+  <si>
+    <t>腹胀</t>
+  </si>
+  <si>
+    <t>脘腹坠胀</t>
+  </si>
+  <si>
+    <t>腹部隐痛</t>
+  </si>
+  <si>
+    <t>脘腹满闷不舒</t>
+  </si>
+  <si>
+    <t>脘腹胀满不舒</t>
+  </si>
+  <si>
+    <t>脘腹胀满</t>
+  </si>
+  <si>
+    <t>胃脘隐痛</t>
+  </si>
+  <si>
+    <t>胃脘冷痛</t>
+  </si>
+  <si>
+    <t>胃脘灼痛隐隐</t>
+  </si>
+  <si>
+    <t>胃脘灼痛拒按</t>
+  </si>
+  <si>
+    <t>胃脘冷痛拒按</t>
+  </si>
+  <si>
+    <t>胃脘胀痛</t>
+  </si>
+  <si>
+    <t>腹痛</t>
+  </si>
+  <si>
+    <t>腹胀痛拒按</t>
+  </si>
+  <si>
+    <t>腹胀作痛</t>
+  </si>
+  <si>
+    <t>脐腹部疼痛</t>
+  </si>
+  <si>
+    <t>纳呆腹胀便溏</t>
+  </si>
+  <si>
+    <t>胸闷</t>
+  </si>
+  <si>
+    <t>胁肋隐痛</t>
+  </si>
+  <si>
+    <t>胁肋气胀痛</t>
+  </si>
+  <si>
+    <t>胁肋灼痛</t>
+  </si>
+  <si>
+    <t>胁肋胀痛</t>
+  </si>
+  <si>
+    <t>纳呆呕恶</t>
+  </si>
+  <si>
+    <t>少腹冷痛</t>
+  </si>
+  <si>
+    <t>情志抑郁</t>
+  </si>
+  <si>
+    <t>意识模糊</t>
+  </si>
+  <si>
+    <t>神志异常</t>
+  </si>
+  <si>
+    <t>男子不育,女子不孕</t>
+  </si>
+  <si>
+    <t>生殖能力下降</t>
+  </si>
+  <si>
+    <t>男子滑精早泄</t>
+  </si>
+  <si>
+    <t>女子月经淋漓不尽,胎动易滑</t>
+  </si>
+  <si>
+    <t>遗精,月经不调</t>
+  </si>
+  <si>
+    <t>阴部冷痛</t>
+  </si>
+  <si>
+    <t>喉中痰鸣</t>
+  </si>
+  <si>
+    <t>妇女月经失调</t>
+  </si>
+  <si>
+    <t>吐痰色黄</t>
   </si>
 </sst>
 </file>
@@ -2095,8 +2077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
@@ -2166,16 +2148,16 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>286</v>
+        <v>485</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>287</v>
+        <v>486</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>203</v>
@@ -2214,16 +2196,16 @@
         <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>287</v>
+        <v>486</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>289</v>
+        <v>512</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>13</v>
@@ -2262,16 +2244,16 @@
         <v>15</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>291</v>
+        <v>518</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>292</v>
+        <v>513</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>293</v>
+        <v>528</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>294</v>
+        <v>511</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>16</v>
@@ -2310,16 +2292,16 @@
         <v>19</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>296</v>
+        <v>480</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>297</v>
+        <v>514</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>20</v>
@@ -2358,16 +2340,16 @@
         <v>22</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>301</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>298</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>23</v>
@@ -2403,16 +2385,16 @@
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="14" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>305</v>
+        <v>414</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>306</v>
@@ -2451,19 +2433,19 @@
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>28</v>
@@ -2475,7 +2457,7 @@
         <v>29</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -2499,19 +2481,19 @@
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="14" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>314</v>
+        <v>488</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>316</v>
+        <v>417</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>317</v>
+        <v>418</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>30</v>
@@ -2523,7 +2505,7 @@
         <v>31</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -2547,19 +2529,19 @@
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="14" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>320</v>
+        <v>489</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>321</v>
+        <v>419</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>322</v>
+        <v>476</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>32</v>
@@ -2598,16 +2580,16 @@
         <v>34</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>324</v>
+        <v>515</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>325</v>
+        <v>516</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>326</v>
+        <v>420</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>35</v>
@@ -2646,16 +2628,16 @@
         <v>36</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>328</v>
+        <v>517</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>329</v>
+        <v>526</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>331</v>
+        <v>421</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>37</v>
@@ -2694,16 +2676,16 @@
         <v>39</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>332</v>
+        <v>422</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>334</v>
+        <v>423</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>35</v>
@@ -2742,16 +2724,16 @@
         <v>41</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>336</v>
+        <v>424</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>337</v>
+        <v>425</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>42</v>
@@ -2790,16 +2772,16 @@
         <v>45</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>336</v>
+        <v>424</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>337</v>
+        <v>425</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>46</v>
@@ -2838,16 +2820,16 @@
         <v>49</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>340</v>
+        <v>426</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>341</v>
+        <v>427</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>50</v>
@@ -2886,16 +2868,16 @@
         <v>53</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>343</v>
+        <v>428</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>344</v>
+        <v>429</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>42</v>
@@ -2934,16 +2916,16 @@
         <v>54</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>347</v>
+        <v>430</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>55</v>
@@ -2979,16 +2961,16 @@
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="14" t="s">
-        <v>349</v>
+        <v>291</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="11" t="s">
@@ -3025,19 +3007,19 @@
     </row>
     <row r="20" spans="1:28">
       <c r="A20" s="14" t="s">
-        <v>352</v>
+        <v>292</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>353</v>
+        <v>431</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>354</v>
+        <v>432</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>61</v>
@@ -3073,19 +3055,19 @@
     </row>
     <row r="21" spans="1:28">
       <c r="A21" s="14" t="s">
-        <v>355</v>
+        <v>293</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>357</v>
+        <v>490</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>358</v>
+        <v>433</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>42</v>
@@ -3121,19 +3103,19 @@
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="14" t="s">
-        <v>359</v>
+        <v>294</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>361</v>
+        <v>434</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="2" t="s">
@@ -3170,16 +3152,16 @@
         <v>67</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>343</v>
+        <v>428</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>364</v>
+        <v>322</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>20</v>
@@ -3218,16 +3200,16 @@
         <v>70</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>365</v>
+        <v>519</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>366</v>
+        <v>435</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>367</v>
+        <v>527</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>61</v>
@@ -3266,16 +3248,16 @@
         <v>73</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>369</v>
+        <v>520</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>371</v>
+        <v>529</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>372</v>
+        <v>437</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>35</v>
@@ -3314,16 +3296,16 @@
         <v>75</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>373</v>
+        <v>319</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>343</v>
+        <v>428</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>374</v>
+        <v>438</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>58</v>
@@ -3362,16 +3344,16 @@
         <v>78</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>377</v>
+        <v>321</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>378</v>
+        <v>322</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>20</v>
@@ -3410,16 +3392,16 @@
         <v>80</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>379</v>
+        <v>439</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>380</v>
+        <v>494</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>382</v>
+        <v>323</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>81</v>
@@ -3458,16 +3440,16 @@
         <v>82</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>383</v>
+        <v>495</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>384</v>
+        <v>440</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>385</v>
+        <v>324</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>81</v>
@@ -3506,16 +3488,16 @@
         <v>84</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>386</v>
+        <v>496</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>389</v>
+        <v>491</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>85</v>
@@ -3527,7 +3509,7 @@
         <v>87</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>390</v>
+        <v>295</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -3554,16 +3536,16 @@
         <v>88</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>381</v>
-      </c>
       <c r="D31" s="6" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>81</v>
@@ -3602,16 +3584,16 @@
         <v>90</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>394</v>
-      </c>
       <c r="D32" s="6" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>91</v>
@@ -3623,7 +3605,7 @@
         <v>92</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>397</v>
+        <v>296</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -3650,16 +3632,16 @@
         <v>93</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>398</v>
+        <v>498</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>35</v>
@@ -3698,16 +3680,16 @@
         <v>95</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>402</v>
+        <v>499</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>403</v>
+        <v>500</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>405</v>
+        <v>325</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>96</v>
@@ -3746,16 +3728,16 @@
         <v>98</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>406</v>
+        <v>501</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>407</v>
+        <v>373</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>99</v>
@@ -3794,16 +3776,16 @@
         <v>101</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>410</v>
+        <v>502</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>412</v>
+        <v>327</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>102</v>
@@ -3842,16 +3824,16 @@
         <v>104</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>414</v>
+        <v>503</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>416</v>
+        <v>326</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>20</v>
@@ -3890,16 +3872,16 @@
         <v>106</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>418</v>
+        <v>504</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>419</v>
+        <v>377</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>420</v>
+        <v>492</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>81</v>
@@ -3938,16 +3920,16 @@
         <v>108</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>422</v>
+        <v>505</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>423</v>
+        <v>378</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>109</v>
@@ -3986,16 +3968,16 @@
         <v>111</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>422</v>
+        <v>505</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>426</v>
+        <v>379</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>427</v>
+        <v>380</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>428</v>
+        <v>381</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>112</v>
@@ -4034,16 +4016,16 @@
         <v>113</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>430</v>
+        <v>348</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>81</v>
@@ -4082,16 +4064,16 @@
         <v>115</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>433</v>
+        <v>349</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>434</v>
+        <v>350</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>435</v>
+        <v>327</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>436</v>
+        <v>328</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>30</v>
@@ -4130,16 +4112,16 @@
         <v>117</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>437</v>
+        <v>351</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>118</v>
@@ -4178,16 +4160,16 @@
         <v>120</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>440</v>
+        <v>352</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>441</v>
+        <v>329</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>16</v>
@@ -4226,16 +4208,16 @@
         <v>122</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>440</v>
+        <v>352</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>445</v>
+        <v>330</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>446</v>
+        <v>353</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>123</v>
@@ -4276,16 +4258,16 @@
         <v>126</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>447</v>
+        <v>354</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>448</v>
+        <v>331</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>449</v>
+        <v>398</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>127</v>
@@ -4326,16 +4308,16 @@
         <v>130</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>440</v>
+        <v>352</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>451</v>
+        <v>355</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>452</v>
+        <v>356</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>131</v>
@@ -4374,16 +4356,16 @@
         <v>134</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>454</v>
+        <v>357</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>455</v>
+        <v>399</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>135</v>
@@ -4422,16 +4404,16 @@
         <v>138</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>457</v>
+        <v>358</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>458</v>
+        <v>359</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>459</v>
+        <v>332</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>35</v>
@@ -4470,16 +4452,16 @@
         <v>140</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>461</v>
-      </c>
       <c r="D50" s="6" t="s">
-        <v>462</v>
+        <v>400</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>141</v>
@@ -4518,16 +4500,16 @@
         <v>143</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>463</v>
+        <v>401</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>464</v>
+        <v>506</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>465</v>
+        <v>402</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>466</v>
+        <v>403</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>35</v>
@@ -4566,16 +4548,16 @@
         <v>146</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>467</v>
+        <v>507</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>468</v>
+        <v>404</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>469</v>
+        <v>405</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>147</v>
@@ -4614,16 +4596,16 @@
         <v>149</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>471</v>
+        <v>406</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>412</v>
+        <v>327</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>472</v>
+        <v>508</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>473</v>
+        <v>334</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>150</v>
@@ -4662,16 +4644,16 @@
         <v>154</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>474</v>
+        <v>509</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>475</v>
+        <v>382</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>476</v>
+        <v>383</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>155</v>
@@ -4710,16 +4692,16 @@
         <v>159</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>479</v>
+        <v>521</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>160</v>
@@ -4760,16 +4742,16 @@
         <v>163</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>480</v>
+        <v>336</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>13</v>
@@ -4810,16 +4792,16 @@
         <v>165</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>483</v>
+        <v>337</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>484</v>
+        <v>522</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>485</v>
+        <v>407</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="F57" s="11" t="s">
         <v>131</v>
@@ -4860,16 +4842,16 @@
         <v>167</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>489</v>
+        <v>408</v>
       </c>
       <c r="F58" s="11" t="s">
         <v>131</v>
@@ -4910,16 +4892,16 @@
         <v>169</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>490</v>
+        <v>409</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>491</v>
+        <v>523</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>492</v>
+        <v>524</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>170</v>
@@ -4960,16 +4942,16 @@
         <v>172</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>493</v>
+        <v>360</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>495</v>
+        <v>470</v>
       </c>
       <c r="F60" s="11" t="s">
         <v>173</v>
@@ -5010,16 +4992,16 @@
         <v>176</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>496</v>
+        <v>410</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>497</v>
+        <v>411</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>498</v>
+        <v>412</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>499</v>
+        <v>338</v>
       </c>
       <c r="F61" s="11" t="s">
         <v>35</v>
@@ -5060,16 +5042,16 @@
         <v>178</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>500</v>
+        <v>361</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>316</v>
+        <v>417</v>
       </c>
       <c r="F62" s="11" t="s">
         <v>179</v>
@@ -5108,16 +5090,16 @@
         <v>181</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>502</v>
+        <v>362</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>489</v>
+        <v>408</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F63" s="11" t="s">
         <v>182</v>
@@ -5156,16 +5138,16 @@
         <v>184</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>505</v>
+        <v>363</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>506</v>
+        <v>364</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="F64" s="11" t="s">
         <v>185</v>
@@ -5206,16 +5188,16 @@
         <v>188</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>508</v>
+        <v>365</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>509</v>
+        <v>384</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>511</v>
+        <v>475</v>
       </c>
       <c r="F65" s="11" t="s">
         <v>99</v>
@@ -5256,16 +5238,16 @@
         <v>189</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>512</v>
+        <v>366</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>514</v>
+        <v>477</v>
       </c>
       <c r="F66" s="11" t="s">
         <v>185</v>
@@ -5304,16 +5286,16 @@
         <v>190</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>515</v>
+        <v>385</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>516</v>
+        <v>367</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>517</v>
+        <v>478</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>514</v>
+        <v>477</v>
       </c>
       <c r="F67" s="11" t="s">
         <v>185</v>
@@ -5354,16 +5336,16 @@
         <v>192</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>518</v>
+        <v>368</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>519</v>
+        <v>328</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>521</v>
+        <v>479</v>
       </c>
       <c r="F68" s="11" t="s">
         <v>30</v>
@@ -5404,16 +5386,16 @@
         <v>193</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>522</v>
+        <v>369</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>523</v>
+        <v>370</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>524</v>
+        <v>480</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F69" s="11" t="s">
         <v>194</v>
@@ -5454,13 +5436,13 @@
         <v>196</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>525</v>
+        <v>371</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>526</v>
+        <v>481</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="11" t="s">
@@ -5500,16 +5482,16 @@
         <v>198</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>528</v>
+        <v>386</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>529</v>
+        <v>387</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>530</v>
+        <v>388</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>531</v>
+        <v>482</v>
       </c>
       <c r="F71" s="11" t="s">
         <v>194</v>
@@ -5550,16 +5532,16 @@
         <v>199</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>343</v>
+        <v>428</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>532</v>
+        <v>483</v>
       </c>
       <c r="F72" s="11" t="s">
         <v>30</v>
@@ -5600,16 +5582,16 @@
         <v>200</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>533</v>
+        <v>339</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>534</v>
+        <v>413</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>535</v>
+        <v>484</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="F73" s="11" t="s">
         <v>201</v>
